--- a/biology/Zoologie/Austrochaperina_minutissima/Austrochaperina_minutissima.xlsx
+++ b/biology/Zoologie/Austrochaperina_minutissima/Austrochaperina_minutissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrochaperina minutissima est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrochaperina minutissima est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Papouasie en Nouvelle-Guinée occidentale. Elle se rencontre dans les monts Wondiwoi à la base de la péninsule Wandammen, entre le district de Manokwari et le kabupaten de Nabire dans l'ouest du golfe de Cenderawasih. Les spécimens ont été collectés entre 700 et 920 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Papouasie en Nouvelle-Guinée occidentale. Elle se rencontre dans les monts Wondiwoi à la base de la péninsule Wandammen, entre le district de Manokwari et le kabupaten de Nabire dans l'ouest du golfe de Cenderawasih. Les spécimens ont été collectés entre 700 et 920 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrochaperina minutissima mesure de 15 à 16 mm pour les mâles et jusqu'à 17 mm pour les femelles. Son dos est brun-rouge avec de nombreuses petites taches brun foncé et blanches. Son ventre est jaunâtre ; sa gorge et son poitrail sont plus ou moins tachetés de brun.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin minutus, « petit », dérivé en minutissima, « extrêmement petit », lui a été donné en référence au fait qu'il s'agisse de la plus petite espèce du genre Austrochaperina actuellement connue[3]. Les auteurs proposent à ce titre le nom vernaculaire anglais de Pygmy Land Frog.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin minutus, « petit », dérivé en minutissima, « extrêmement petit », lui a été donné en référence au fait qu'il s'agisse de la plus petite espèce du genre Austrochaperina actuellement connue. Les auteurs proposent à ce titre le nom vernaculaire anglais de Pygmy Land Frog.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rainer Günther, A new and minute species of Austrochaperina (Amphibia: Anura: Microhylidae) from western New Guinea. Vertebrate Zoology, vol. 59, no 1, p. 81-89, 2009 (texte intégral).</t>
         </is>
